--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_23_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_23_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>812156.6761866803</v>
+        <v>762703.8269153484</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7558307.070167589</v>
+        <v>7558307.070167584</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8629504.120382868</v>
+        <v>8629504.12038287</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>88.09081815943087</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G2" t="n">
-        <v>6.396723986041539</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>187.52558716632</v>
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>62.42506650037924</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>52.21594625443442</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708302</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>165.1856488601263</v>
+        <v>186.8864638868224</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>67.94771447127283</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904886</v>
+        <v>33.28674683741997</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>105.3620822402469</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>31.68046530976816</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>42.83240554517791</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.6761715944833</v>
       </c>
       <c r="H8" t="n">
-        <v>302.3342338808924</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>70.66270691447875</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>126.3796986693934</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.2205572464783</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0555276341844</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>382.6493202277936</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4031333312317</v>
       </c>
       <c r="H9" t="n">
-        <v>93.49542143817385</v>
+        <v>93.49542143817379</v>
       </c>
       <c r="I9" t="n">
-        <v>32.7153050831823</v>
+        <v>32.71530508318214</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>25.20549727320325</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>135.64139247037</v>
+        <v>135.6413924703699</v>
       </c>
       <c r="T9" t="n">
         <v>192.3436201790821</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>26.68990389142956</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>70.52984702371961</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>231.0718430603819</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>5.079070521525403</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>337.3751152735481</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>41.96425921497013</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>146.8428862394539</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>47.38664856090042</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>44.02483164561338</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>13.77617170029427</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969292</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.7278996098544</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>47.38664856090042</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>85.17289288835175</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>155.4595895869374</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247811</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>31.9358262376308</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>257.6276659754737</v>
+        <v>186.0867603502138</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>81.4608434426853</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>58.28185552386407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>289.8943346191904</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>194.7895232067157</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>81.4608434426853</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>160.8915086215178</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>177.6639791994885</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>22.68352231439568</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.06217772003149</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>242.6334155076106</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>331.4097589280076</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>81.46084344268542</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>203.7029035467948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>229.7965692041388</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>79.76432082486842</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>20.95866062610972</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>115.0138334144185</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>239.4415781650977</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3319,22 +3319,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>61.31988685654751</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>103.5078235545809</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>83.13723023285972</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>288.2375174188801</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>57.91073356940661</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>20.95866062610959</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>32.97988876732369</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>229.7965692041376</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>58.28185552386356</v>
+        <v>132.410155028542</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>184.1739595194687</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>133.4456537194332</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>144.1069738760715</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>184.375522560702</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.46338433294352</v>
+        <v>293.402456393256</v>
       </c>
       <c r="C2" t="n">
-        <v>21.46338433294352</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="D2" t="n">
-        <v>21.46338433294352</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="E2" t="n">
-        <v>21.46338433294352</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="F2" t="n">
-        <v>21.46338433294352</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G2" t="n">
         <v>15.0020469733056</v>
@@ -4330,22 +4330,22 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
         <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
         <v>734.4611726020269</v>
@@ -4354,28 +4354,28 @@
         <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823981</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823981</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="U2" t="n">
-        <v>589.7227393823981</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="V2" t="n">
-        <v>589.7227393823981</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="W2" t="n">
-        <v>400.3029543659133</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="X2" t="n">
-        <v>210.8831693494284</v>
+        <v>482.8222414097409</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.46338433294352</v>
+        <v>293.402456393256</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.6825636487952</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>386.2295343676682</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>237.2951247064169</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>78.05766970096141</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
         <v>15.0020469733056</v>
@@ -4412,16 +4412,16 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772653</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476352</v>
@@ -4445,16 +4445,16 @@
         <v>560.6825636487952</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487952</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487952</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="X3" t="n">
-        <v>560.6825636487952</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y3" t="n">
-        <v>560.6825636487952</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
         <v>15.0020469733056</v>
@@ -4494,46 +4494,46 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230177</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170717</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615.005796072727</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="C5" t="n">
-        <v>1615.005796072727</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="D5" t="n">
-        <v>1256.740097465976</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="E5" t="n">
-        <v>1256.740097465976</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F5" t="n">
-        <v>845.7541926763688</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G5" t="n">
-        <v>429.723147379776</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947426</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J5" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T5" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U5" t="n">
-        <v>2168.459826904653</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V5" t="n">
-        <v>2168.459826904653</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.459826904653</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="X5" t="n">
-        <v>2001.605636136848</v>
+        <v>1726.078456620876</v>
       </c>
       <c r="Y5" t="n">
-        <v>2001.605636136848</v>
+        <v>1335.939124645065</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1263.458562974222</v>
+        <v>706.1516250624964</v>
       </c>
       <c r="C6" t="n">
-        <v>1089.005533693095</v>
+        <v>531.6985957813694</v>
       </c>
       <c r="D6" t="n">
-        <v>1020.371478671607</v>
+        <v>382.7641861201181</v>
       </c>
       <c r="E6" t="n">
-        <v>861.1340236661516</v>
+        <v>223.5267311146626</v>
       </c>
       <c r="F6" t="n">
-        <v>714.5994656930366</v>
+        <v>76.99217314154757</v>
       </c>
       <c r="G6" t="n">
-        <v>577.7234719081524</v>
+        <v>76.99217314154757</v>
       </c>
       <c r="H6" t="n">
-        <v>482.2681049769856</v>
+        <v>76.99217314154757</v>
       </c>
       <c r="I6" t="n">
-        <v>445.6019761092595</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J6" t="n">
-        <v>491.7863446767896</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K6" t="n">
-        <v>648.8776114216183</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L6" t="n">
-        <v>906.4287469816059</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M6" t="n">
-        <v>1226.335642450115</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N6" t="n">
-        <v>1569.118166444747</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.477412699312</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P6" t="n">
-        <v>2074.985828260213</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q6" t="n">
-        <v>2168.459826904653</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R6" t="n">
-        <v>2168.459826904653</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S6" t="n">
-        <v>2168.459826904653</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T6" t="n">
-        <v>2168.459826904653</v>
+        <v>1571.516725807463</v>
       </c>
       <c r="U6" t="n">
-        <v>2168.459826904653</v>
+        <v>1571.516725807463</v>
       </c>
       <c r="V6" t="n">
-        <v>1933.30771867291</v>
+        <v>1336.36461757572</v>
       </c>
       <c r="W6" t="n">
-        <v>1679.070361944709</v>
+        <v>1082.127260847518</v>
       </c>
       <c r="X6" t="n">
-        <v>1471.218861739176</v>
+        <v>1082.127260847518</v>
       </c>
       <c r="Y6" t="n">
-        <v>1263.458562974222</v>
+        <v>874.3669620825644</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>296.6854897332225</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="C7" t="n">
-        <v>296.6854897332225</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="D7" t="n">
-        <v>296.6854897332225</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E7" t="n">
         <v>190.2591440360034</v>
       </c>
       <c r="F7" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J7" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981519</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L7" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M7" t="n">
-        <v>287.1411594927331</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N7" t="n">
-        <v>393.9588065377459</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O7" t="n">
-        <v>472.3091036033657</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P7" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R7" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S7" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T7" t="n">
-        <v>296.6854897332225</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U7" t="n">
-        <v>296.6854897332225</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V7" t="n">
-        <v>296.6854897332225</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W7" t="n">
-        <v>296.6854897332225</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X7" t="n">
-        <v>296.6854897332225</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="Y7" t="n">
-        <v>296.6854897332225</v>
+        <v>488.2888770307322</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1097.555960439906</v>
+        <v>1375.36409609069</v>
       </c>
       <c r="C8" t="n">
-        <v>1097.555960439906</v>
+        <v>1375.36409609069</v>
       </c>
       <c r="D8" t="n">
-        <v>739.2902618331556</v>
+        <v>1332.09903998445</v>
       </c>
       <c r="E8" t="n">
-        <v>353.5020092349113</v>
+        <v>946.3107873862057</v>
       </c>
       <c r="F8" t="n">
-        <v>353.5020092349113</v>
+        <v>535.3248825965981</v>
       </c>
       <c r="G8" t="n">
-        <v>353.5020092349113</v>
+        <v>119.4903658344937</v>
       </c>
       <c r="H8" t="n">
-        <v>48.1138942037069</v>
+        <v>119.4903658344937</v>
       </c>
       <c r="I8" t="n">
-        <v>48.1138942037069</v>
+        <v>48.1138942037071</v>
       </c>
       <c r="J8" t="n">
-        <v>173.6006955371254</v>
+        <v>173.6006955371263</v>
       </c>
       <c r="K8" t="n">
-        <v>412.4113998844091</v>
+        <v>412.4113998844114</v>
       </c>
       <c r="L8" t="n">
-        <v>745.5789575721412</v>
+        <v>745.5789575721444</v>
       </c>
       <c r="M8" t="n">
-        <v>1147.961497459637</v>
+        <v>1147.961497459642</v>
       </c>
       <c r="N8" t="n">
-        <v>1561.468815899339</v>
+        <v>1561.468815899346</v>
       </c>
       <c r="O8" t="n">
-        <v>1938.596789767451</v>
+        <v>1938.596789767459</v>
       </c>
       <c r="P8" t="n">
-        <v>2225.965789440887</v>
+        <v>2225.965789440896</v>
       </c>
       <c r="Q8" t="n">
-        <v>2393.595193823326</v>
+        <v>2393.595193823336</v>
       </c>
       <c r="R8" t="n">
-        <v>2405.694710185345</v>
+        <v>2405.694710185355</v>
       </c>
       <c r="S8" t="n">
-        <v>2278.038448903129</v>
+        <v>2405.694710185355</v>
       </c>
       <c r="T8" t="n">
-        <v>2068.724754714768</v>
+        <v>2405.694710185355</v>
       </c>
       <c r="U8" t="n">
-        <v>1815.133312660036</v>
+        <v>2152.103268130624</v>
       </c>
       <c r="V8" t="n">
-        <v>1484.070425316465</v>
+        <v>2152.103268130624</v>
       </c>
       <c r="W8" t="n">
-        <v>1484.070425316465</v>
+        <v>2152.103268130624</v>
       </c>
       <c r="X8" t="n">
-        <v>1484.070425316465</v>
+        <v>2152.103268130624</v>
       </c>
       <c r="Y8" t="n">
-        <v>1097.555960439906</v>
+        <v>1761.963936154812</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>804.7589284694599</v>
+        <v>941.5297702181789</v>
       </c>
       <c r="C9" t="n">
-        <v>630.3058991883329</v>
+        <v>767.0767409370519</v>
       </c>
       <c r="D9" t="n">
-        <v>481.3714895270816</v>
+        <v>618.1423312758006</v>
       </c>
       <c r="E9" t="n">
-        <v>322.1340345216261</v>
+        <v>458.9048762703451</v>
       </c>
       <c r="F9" t="n">
-        <v>175.5994765485111</v>
+        <v>312.37031829723</v>
       </c>
       <c r="G9" t="n">
         <v>175.5994765485111</v>
       </c>
       <c r="H9" t="n">
-        <v>81.15965691399205</v>
+        <v>81.15965691399211</v>
       </c>
       <c r="I9" t="n">
-        <v>48.1138942037069</v>
+        <v>48.1138942037071</v>
       </c>
       <c r="J9" t="n">
-        <v>104.0351264502468</v>
+        <v>104.0351264502474</v>
       </c>
       <c r="K9" t="n">
-        <v>277.7682440873323</v>
+        <v>277.7682440873337</v>
       </c>
       <c r="L9" t="n">
-        <v>557.6964019039178</v>
+        <v>557.6964019039203</v>
       </c>
       <c r="M9" t="n">
-        <v>903.7162268899237</v>
+        <v>903.7162268899274</v>
       </c>
       <c r="N9" t="n">
-        <v>1273.302811944933</v>
+        <v>1273.302811944938</v>
       </c>
       <c r="O9" t="n">
-        <v>1589.182537471364</v>
+        <v>1589.18253747137</v>
       </c>
       <c r="P9" t="n">
-        <v>1823.370799411575</v>
+        <v>1823.370799411582</v>
       </c>
       <c r="Q9" t="n">
-        <v>1930.000254186831</v>
+        <v>1930.000254186838</v>
       </c>
       <c r="R9" t="n">
-        <v>1904.54015593107</v>
+        <v>1930.000254186838</v>
       </c>
       <c r="S9" t="n">
-        <v>1767.528648385242</v>
+        <v>1792.98874664101</v>
       </c>
       <c r="T9" t="n">
-        <v>1573.242163355866</v>
+        <v>1598.702261611634</v>
       </c>
       <c r="U9" t="n">
-        <v>1573.242163355866</v>
+        <v>1598.702261611634</v>
       </c>
       <c r="V9" t="n">
-        <v>1338.090055124123</v>
+        <v>1571.742762731402</v>
       </c>
       <c r="W9" t="n">
-        <v>1083.852698395922</v>
+        <v>1317.505406003201</v>
       </c>
       <c r="X9" t="n">
-        <v>876.0011981903888</v>
+        <v>1317.505406003201</v>
       </c>
       <c r="Y9" t="n">
-        <v>804.7589284694599</v>
+        <v>1109.745107238247</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>363.9400246295241</v>
+        <v>48.1138942037071</v>
       </c>
       <c r="C10" t="n">
-        <v>195.0038417016173</v>
+        <v>48.1138942037071</v>
       </c>
       <c r="D10" t="n">
-        <v>195.0038417016173</v>
+        <v>48.1138942037071</v>
       </c>
       <c r="E10" t="n">
-        <v>195.0038417016173</v>
+        <v>48.1138942037071</v>
       </c>
       <c r="F10" t="n">
-        <v>48.1138942037069</v>
+        <v>48.1138942037071</v>
       </c>
       <c r="G10" t="n">
-        <v>48.1138942037069</v>
+        <v>48.1138942037071</v>
       </c>
       <c r="H10" t="n">
-        <v>48.1138942037069</v>
+        <v>48.1138942037071</v>
       </c>
       <c r="I10" t="n">
-        <v>48.1138942037069</v>
+        <v>48.1138942037071</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1138942037069</v>
+        <v>48.1138942037071</v>
       </c>
       <c r="K10" t="n">
-        <v>107.4998553139087</v>
+        <v>107.4998553139094</v>
       </c>
       <c r="L10" t="n">
-        <v>213.3992373663723</v>
+        <v>213.3992373663736</v>
       </c>
       <c r="M10" t="n">
-        <v>328.3135705658651</v>
+        <v>328.3135705658671</v>
       </c>
       <c r="N10" t="n">
-        <v>448.3530236739858</v>
+        <v>448.3530236739883</v>
       </c>
       <c r="O10" t="n">
-        <v>538.9157986502099</v>
+        <v>538.915798650213</v>
       </c>
       <c r="P10" t="n">
-        <v>597.345926710718</v>
+        <v>597.3459267107216</v>
       </c>
       <c r="Q10" t="n">
-        <v>597.345926710718</v>
+        <v>597.3459267107216</v>
       </c>
       <c r="R10" t="n">
-        <v>597.345926710718</v>
+        <v>597.3459267107216</v>
       </c>
       <c r="S10" t="n">
-        <v>597.345926710718</v>
+        <v>597.3459267107216</v>
       </c>
       <c r="T10" t="n">
-        <v>597.345926710718</v>
+        <v>597.3459267107216</v>
       </c>
       <c r="U10" t="n">
-        <v>363.9400246295241</v>
+        <v>597.3459267107216</v>
       </c>
       <c r="V10" t="n">
-        <v>363.9400246295241</v>
+        <v>342.6614385048348</v>
       </c>
       <c r="W10" t="n">
-        <v>363.9400246295241</v>
+        <v>53.24426846787418</v>
       </c>
       <c r="X10" t="n">
-        <v>363.9400246295241</v>
+        <v>48.1138942037071</v>
       </c>
       <c r="Y10" t="n">
-        <v>363.9400246295241</v>
+        <v>48.1138942037071</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1274.53911114974</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C11" t="n">
-        <v>1274.53911114974</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>1274.53911114974</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
@@ -5068,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W11" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X11" t="n">
-        <v>2051.278283189674</v>
+        <v>2367.546699278357</v>
       </c>
       <c r="Y11" t="n">
-        <v>1661.138951213862</v>
+        <v>1977.407367302545</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064583</v>
@@ -5123,13 +5123,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5144,16 +5144,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199866</v>
@@ -5165,7 +5165,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5229,22 +5229,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T13" t="n">
-        <v>772.5608581015648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U13" t="n">
-        <v>772.5608581015648</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V13" t="n">
-        <v>772.5608581015648</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W13" t="n">
-        <v>772.5608581015648</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1976.204921733553</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G14" t="n">
         <v>406.0926155839475</v>
@@ -5278,10 +5278,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3119.628073993393</v>
+        <v>2711.337401879563</v>
       </c>
       <c r="W14" t="n">
-        <v>2766.859418723279</v>
+        <v>2711.337401879563</v>
       </c>
       <c r="X14" t="n">
-        <v>2752.944093773487</v>
+        <v>2337.871643618483</v>
       </c>
       <c r="Y14" t="n">
-        <v>2362.804761797675</v>
+        <v>1947.732311642671</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5393,10 +5393,10 @@
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C16" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D16" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T16" t="n">
-        <v>699.1203903877115</v>
+        <v>873.0217042415178</v>
       </c>
       <c r="U16" t="n">
-        <v>699.1203903877115</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="V16" t="n">
-        <v>699.1203903877115</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W16" t="n">
-        <v>699.1203903877115</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X16" t="n">
-        <v>699.1203903877115</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y16" t="n">
-        <v>699.1203903877115</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796261</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C17" t="n">
-        <v>552.8079389392144</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D17" t="n">
-        <v>194.5422403324639</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
-        <v>108.5090151927147</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
@@ -5515,25 +5515,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>2378.004821452004</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2004.539063190924</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943748</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D18" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5673,52 +5673,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O19" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R19" t="n">
-        <v>888.6285954771442</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>696.9427113039706</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T19" t="n">
-        <v>696.9427113039706</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U19" t="n">
-        <v>696.9427113039706</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V19" t="n">
-        <v>696.9427113039706</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W19" t="n">
-        <v>696.9427113039706</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X19" t="n">
-        <v>468.9531604059532</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y19" t="n">
-        <v>248.1605812624231</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1617.939223126803</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C20" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
@@ -5752,19 +5752,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V20" t="n">
-        <v>2994.5429342656</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W20" t="n">
-        <v>2641.774278995486</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.308520734406</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.169188758594</v>
+        <v>2235.550262878908</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C22" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D22" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
         <v>66.51211643218342</v>
@@ -5910,52 +5910,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K22" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O22" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181855</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="U22" t="n">
-        <v>920.8870058181855</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="V22" t="n">
-        <v>920.8870058181855</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W22" t="n">
-        <v>920.8870058181855</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X22" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y22" t="n">
-        <v>862.0164446829692</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1519.135572818019</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C23" t="n">
-        <v>1519.135572818019</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D23" t="n">
-        <v>1160.869874211268</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E23" t="n">
-        <v>775.0816216130238</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F23" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V23" t="n">
-        <v>2669.340503119032</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W23" t="n">
-        <v>2669.340503119032</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X23" t="n">
-        <v>2295.874744857952</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y23" t="n">
-        <v>1905.73541288214</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="24">
@@ -6071,10 +6071,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.605821609171</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="U25" t="n">
-        <v>3325.605821609171</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="V25" t="n">
-        <v>3325.605821609171</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W25" t="n">
-        <v>3036.18865157221</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X25" t="n">
-        <v>2873.67197619694</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y25" t="n">
-        <v>2652.87939705341</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2185.045504370169</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C26" t="n">
-        <v>1816.082987429757</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>1457.817288823007</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>1072.029036224763</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>661.0431314351551</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>245.9706812801516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329465</v>
@@ -6244,34 +6244,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410103</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V26" t="n">
-        <v>2961.784676410103</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W26" t="n">
-        <v>2961.784676410103</v>
+        <v>2765.652537847403</v>
       </c>
       <c r="X26" t="n">
-        <v>2961.784676410103</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="Y26" t="n">
-        <v>2571.645344434291</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="27">
@@ -6296,16 +6296,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>385.5649387724261</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C28" t="n">
-        <v>216.6287558445192</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K28" t="n">
         <v>176.6457242372933</v>
@@ -6393,43 +6393,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>831.9353111514865</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>640.249426978313</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>640.249426978313</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U28" t="n">
-        <v>640.249426978313</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V28" t="n">
-        <v>385.5649387724261</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W28" t="n">
-        <v>385.5649387724261</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X28" t="n">
-        <v>385.5649387724261</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y28" t="n">
-        <v>385.5649387724261</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1636.624422581789</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052369</v>
@@ -6490,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U29" t="n">
-        <v>3080.521563520676</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V29" t="n">
-        <v>2749.458676177105</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W29" t="n">
-        <v>2396.690020906991</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X29" t="n">
-        <v>2023.224262645911</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y29" t="n">
-        <v>2023.224262645911</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="30">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>533.4780323548192</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C31" t="n">
-        <v>364.5418494269123</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D31" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E31" t="n">
         <v>66.51211643218343</v>
@@ -6651,22 +6651,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T31" t="n">
-        <v>920.887005818185</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="U31" t="n">
-        <v>920.887005818185</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="V31" t="n">
-        <v>920.887005818185</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W31" t="n">
-        <v>920.887005818185</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X31" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y31" t="n">
-        <v>715.126497185059</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1822.632236038045</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C32" t="n">
-        <v>1453.669719097633</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D32" t="n">
-        <v>1095.404020490883</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E32" t="n">
-        <v>709.6157678926384</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F32" t="n">
-        <v>298.6298631030308</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218345</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912092</v>
@@ -6721,31 +6721,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609172</v>
+        <v>3245.035800573951</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609172</v>
+        <v>3245.035800573951</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.605821609172</v>
+        <v>2991.505323847787</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.605821609172</v>
+        <v>2660.442436504216</v>
       </c>
       <c r="W32" t="n">
-        <v>2972.837166339058</v>
+        <v>2307.673781234102</v>
       </c>
       <c r="X32" t="n">
-        <v>2599.371408077978</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="Y32" t="n">
-        <v>2209.232076102167</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C34" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D34" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E34" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K34" t="n">
         <v>176.6457242372933</v>
@@ -6888,22 +6888,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T34" t="n">
-        <v>920.887005818185</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U34" t="n">
-        <v>920.887005818185</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V34" t="n">
-        <v>804.7114165106916</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W34" t="n">
-        <v>515.2942464737309</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X34" t="n">
-        <v>287.3046955757135</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1976.204921733553</v>
+        <v>1832.276849100054</v>
       </c>
       <c r="C35" t="n">
-        <v>1976.204921733553</v>
+        <v>1832.276849100054</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>1474.011150493304</v>
       </c>
       <c r="E35" t="n">
         <v>1232.150970528558</v>
@@ -6937,13 +6937,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W35" t="n">
-        <v>2424.744041450753</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X35" t="n">
-        <v>2424.744041450753</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="Y35" t="n">
-        <v>2362.804761797675</v>
+        <v>2218.876689164176</v>
       </c>
     </row>
     <row r="36">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3133.919937435997</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C37" t="n">
-        <v>3133.919937435997</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D37" t="n">
-        <v>3133.919937435997</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E37" t="n">
-        <v>3029.366580310158</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F37" t="n">
-        <v>2882.476632812247</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>2714.773796186966</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>3133.919937435997</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>3133.919937435997</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U37" t="n">
-        <v>3133.919937435997</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V37" t="n">
-        <v>3133.919937435997</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W37" t="n">
-        <v>3133.919937435997</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X37" t="n">
-        <v>3133.919937435997</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y37" t="n">
-        <v>3133.919937435997</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1175.30093260579</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C38" t="n">
-        <v>806.3384156653785</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D38" t="n">
-        <v>448.072717058628</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>364.0957168234162</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>3009.337405520489</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V38" t="n">
-        <v>2678.274518176918</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W38" t="n">
-        <v>2325.505862906803</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X38" t="n">
-        <v>1952.040104645724</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y38" t="n">
-        <v>1561.900772669912</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="39">
@@ -7244,22 +7244,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>831.0565485757129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C40" t="n">
-        <v>831.0565485757129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K40" t="n">
         <v>176.6457242372933</v>
@@ -7341,43 +7341,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>831.0565485757129</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V40" t="n">
-        <v>831.0565485757129</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W40" t="n">
-        <v>831.0565485757129</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X40" t="n">
-        <v>831.0565485757129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y40" t="n">
-        <v>831.0565485757129</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796265</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C41" t="n">
-        <v>552.8079389392149</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D41" t="n">
-        <v>519.4949199823222</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E41" t="n">
-        <v>519.4949199823222</v>
+        <v>709.615767892637</v>
       </c>
       <c r="F41" t="n">
-        <v>108.5090151927147</v>
+        <v>298.6298631030294</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.97538618064</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.50962791956</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943748</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D42" t="n">
         <v>618.1564155387305</v>
@@ -7478,46 +7478,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
         <v>2242.828302297192</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>739.2385409879453</v>
+        <v>666.202517612298</v>
       </c>
       <c r="C43" t="n">
-        <v>570.3023580600384</v>
+        <v>497.2663346843912</v>
       </c>
       <c r="D43" t="n">
-        <v>420.1857186477026</v>
+        <v>347.1496952720554</v>
       </c>
       <c r="E43" t="n">
-        <v>272.2726250653095</v>
+        <v>347.1496952720554</v>
       </c>
       <c r="F43" t="n">
-        <v>125.3826775673992</v>
+        <v>200.259747774145</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372933</v>
@@ -7578,43 +7578,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V43" t="n">
-        <v>920.887005818185</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W43" t="n">
-        <v>920.887005818185</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X43" t="n">
-        <v>920.887005818185</v>
+        <v>666.202517612298</v>
       </c>
       <c r="Y43" t="n">
-        <v>920.887005818185</v>
+        <v>666.202517612298</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1636.624422581789</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.624422581789</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939507</v>
@@ -7675,25 +7675,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3080.521563520676</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3080.521563520676</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>2749.458676177105</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W44" t="n">
-        <v>2396.690020906991</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X44" t="n">
-        <v>2023.224262645911</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y44" t="n">
-        <v>2023.224262645911</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="45">
@@ -7718,10 +7718,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
         <v>66.5121164321834</v>
@@ -7730,10 +7730,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7745,7 +7745,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>508.4085425014811</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C46" t="n">
-        <v>508.4085425014811</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D46" t="n">
-        <v>358.2919030891453</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E46" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F46" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
         <v>66.5121164321834</v>
@@ -7806,52 +7806,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K46" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S46" t="n">
-        <v>729.2011216450112</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T46" t="n">
-        <v>729.2011216450112</v>
+        <v>507.434506214537</v>
       </c>
       <c r="U46" t="n">
-        <v>729.2011216450112</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V46" t="n">
-        <v>729.2011216450112</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="W46" t="n">
-        <v>729.2011216450112</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X46" t="n">
-        <v>729.2011216450112</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y46" t="n">
-        <v>508.4085425014811</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
   </sheetData>
@@ -22549,7 +22549,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>277.1820736115767</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22558,10 +22558,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G2" t="n">
-        <v>406.7011092440165</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -22594,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -22609,7 +22609,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.715381551093</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>182.205513512149</v>
@@ -22628,16 +22628,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>82.64414589300463</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -22649,7 +22649,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>38.33818124377092</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>40.60044802738284</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22716,7 +22716,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>93.20510176849672</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -22728,10 +22728,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821566</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22789,7 +22789,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22834,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092505</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>204.5454518183428</v>
+        <v>182.8446367916466</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>79.49735109336592</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22877,13 +22877,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3.012720741628883</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721433</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8205739680685</v>
@@ -22928,7 +22928,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22947,10 +22947,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>41.07188040632225</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22965,7 +22965,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923926</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425556</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
         <v>108.0728512656386</v>
@@ -22995,7 +22995,7 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
         <v>286.2350578157167</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>194.029190079269</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>311.8506360755051</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.6761715944833</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>302.3342338808923</v>
       </c>
       <c r="I8" t="n">
-        <v>70.66270691447909</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>126.3796986693932</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.2205572464783</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.588618428259963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23114,7 +23114,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4031333312317</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.20549727320295</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23159,16 +23159,16 @@
         <v>225.8137252499236</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>206.1106832579957</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>135.1528487535847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23190,19 +23190,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3642267354451</v>
       </c>
       <c r="H10" t="n">
-        <v>147.7638628228272</v>
+        <v>147.7638628228271</v>
       </c>
       <c r="I10" t="n">
-        <v>106.5295869551746</v>
+        <v>106.5295869551744</v>
       </c>
       <c r="J10" t="n">
-        <v>11.98401099232991</v>
+        <v>11.98401099232963</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,28 +23223,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.2866524423651</v>
+        <v>15.28665244236475</v>
       </c>
       <c r="R10" t="n">
-        <v>104.1486779823914</v>
+        <v>104.1486779823912</v>
       </c>
       <c r="S10" t="n">
         <v>195.6667364159068</v>
       </c>
       <c r="T10" t="n">
-        <v>220.9949191299504</v>
+        <v>220.9949191299503</v>
       </c>
       <c r="U10" t="n">
-        <v>55.1584543348537</v>
+        <v>286.2302973952356</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>220.6305848675117</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>45.35872638993243</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>339.9661108572917</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>72.70606303671534</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>204.7509947629276</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>283.7274268245216</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>355.9549289781747</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.1040805720829</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>172.1623007152688</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>296.7574771839101</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>193.7813791304756</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>56.99632643241652</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>125.1061756880069</v>
+        <v>196.6470813132668</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>138.0881058334839</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>160.3027978282307</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>92.83950704429014</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>132.9627352634192</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24417,22 +24417,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>138.0881058334839</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>64.81814676751932</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>116.943785187832</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>326.5574464030173</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.8699749500158447</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>8.361756451291427</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>17.83120978940542</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24891,22 +24891,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>138.0881058334838</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.88174980530002</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>181.1251564493146</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>29.42344096330741</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25128,22 +25128,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500595</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>137.1238099094095</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>142.4887919071641</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>324.9180517995061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>42.92613909198829</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>298.793139839402</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>81.49358325958895</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>90.70473944880575</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25605,16 +25605,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>321.7031528533593</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>181.1251564493159</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>107.7439527351647</v>
+        <v>33.61565323048623</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25845,7 +25845,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>222.7020862222428</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>70.47231642018693</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,10 +26028,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>2.326988770497707</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>101.8363156449109</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>408267.1291510504</v>
+        <v>408267.1291510502</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>632720.5423917631</v>
+        <v>632720.5423917632</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>668279.6506900452</v>
+        <v>668279.6506900467</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>806150.3945534367</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>806150.3945534365</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>806150.3945534365</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>806150.3945534365</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>806150.3945534365</v>
+        <v>806150.3945534367</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>806150.3945534367</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>806150.3945534367</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>806150.3945534367</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="15">
@@ -26316,43 +26316,43 @@
         <v>174971.6267790215</v>
       </c>
       <c r="C2" t="n">
-        <v>271165.946739327</v>
+        <v>271165.9467393269</v>
       </c>
       <c r="D2" t="n">
-        <v>286405.5645814477</v>
+        <v>286405.5645814484</v>
       </c>
       <c r="E2" t="n">
+        <v>345493.0262371867</v>
+      </c>
+      <c r="F2" t="n">
+        <v>345493.0262371866</v>
+      </c>
+      <c r="G2" t="n">
         <v>345493.0262371869</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>345493.0262371869</v>
+      </c>
+      <c r="I2" t="n">
         <v>345493.026237187</v>
-      </c>
-      <c r="G2" t="n">
-        <v>345493.026237187</v>
-      </c>
-      <c r="H2" t="n">
-        <v>345493.0262371868</v>
-      </c>
-      <c r="I2" t="n">
-        <v>345493.0262371867</v>
       </c>
       <c r="J2" t="n">
         <v>345493.0262371869</v>
       </c>
       <c r="K2" t="n">
-        <v>345493.0262371869</v>
+        <v>345493.0262371868</v>
       </c>
       <c r="L2" t="n">
         <v>345493.0262371869</v>
       </c>
       <c r="M2" t="n">
+        <v>345493.0262371868</v>
+      </c>
+      <c r="N2" t="n">
         <v>345493.0262371869</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>345493.026237187</v>
-      </c>
-      <c r="O2" t="n">
-        <v>345493.0262371869</v>
       </c>
       <c r="P2" t="n">
         <v>345493.0262371869</v>
@@ -26368,16 +26368,16 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861773</v>
+        <v>392510.2442861776</v>
       </c>
       <c r="D3" t="n">
-        <v>59871.45719829598</v>
+        <v>59871.45719829867</v>
       </c>
       <c r="E3" t="n">
-        <v>219439.6828815246</v>
+        <v>219439.6828815221</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>91259.95686487772</v>
       </c>
       <c r="L3" t="n">
-        <v>15010.50346109846</v>
+        <v>15010.50346109909</v>
       </c>
       <c r="M3" t="n">
-        <v>57311.38215281568</v>
+        <v>57311.38215281509</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723341</v>
+        <v>137.800118072334</v>
       </c>
       <c r="C4" t="n">
-        <v>384.3219252469135</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="D4" t="n">
-        <v>425.2075505993803</v>
+        <v>425.2075505993823</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26450,16 +26450,16 @@
         <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
+        <v>584.646989006123</v>
+      </c>
+      <c r="N4" t="n">
         <v>584.6469890061231</v>
-      </c>
-      <c r="N4" t="n">
-        <v>584.6469890061232</v>
       </c>
       <c r="O4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
     </row>
     <row r="5">
@@ -26475,19 +26475,19 @@
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>89860.11994103155</v>
+        <v>89860.11994103176</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26499,7 +26499,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-473508.8762715098</v>
+        <v>-485702.9382905445</v>
       </c>
       <c r="C6" t="n">
-        <v>-206927.7013279695</v>
+        <v>-214541.0814441327</v>
       </c>
       <c r="D6" t="n">
-        <v>136248.7798915209</v>
+        <v>129361.0958630757</v>
       </c>
       <c r="E6" t="n">
-        <v>51162.35580526279</v>
+        <v>47088.36042709559</v>
       </c>
       <c r="F6" t="n">
-        <v>270602.0386867874</v>
+        <v>266528.0433086175</v>
       </c>
       <c r="G6" t="n">
-        <v>270602.0386867876</v>
+        <v>266528.0433086178</v>
       </c>
       <c r="H6" t="n">
-        <v>270602.0386867874</v>
+        <v>266528.0433086178</v>
       </c>
       <c r="I6" t="n">
-        <v>270602.0386867874</v>
+        <v>266528.0433086179</v>
       </c>
       <c r="J6" t="n">
-        <v>221537.0939582428</v>
+        <v>217463.0985800732</v>
       </c>
       <c r="K6" t="n">
-        <v>179342.0818219098</v>
+        <v>175268.0864437401</v>
       </c>
       <c r="L6" t="n">
-        <v>255591.5352256889</v>
+        <v>251517.5398475187</v>
       </c>
       <c r="M6" t="n">
-        <v>213290.6565339717</v>
+        <v>209216.6611558026</v>
       </c>
       <c r="N6" t="n">
-        <v>270602.0386867875</v>
+        <v>266528.0433086178</v>
       </c>
       <c r="O6" t="n">
-        <v>270602.0386867874</v>
+        <v>266528.043308618</v>
       </c>
       <c r="P6" t="n">
-        <v>270602.0386867874</v>
+        <v>266528.0433086178</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>853.710664537684</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>902.1082727621241</v>
+        <v>902.1082727621264</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26792,43 +26792,43 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="D4" t="n">
-        <v>601.4236775463362</v>
+        <v>601.4236775463388</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022928</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022925</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247793</v>
+        <v>305.2407236247795</v>
       </c>
       <c r="D3" t="n">
-        <v>48.39760822444009</v>
+        <v>48.39760822444225</v>
       </c>
       <c r="E3" t="n">
-        <v>187.6684278311742</v>
+        <v>187.6684278311719</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598432</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="D4" t="n">
-        <v>59.30872082017301</v>
+        <v>59.30872082017573</v>
       </c>
       <c r="E4" t="n">
-        <v>229.9777778559566</v>
+        <v>229.9777778559539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>59.30872082017324</v>
+        <v>59.30872082017572</v>
       </c>
       <c r="M4" t="n">
-        <v>229.9777778559561</v>
+        <v>229.9777778559537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598432</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="L4" t="n">
-        <v>59.30872082017301</v>
+        <v>59.30872082017573</v>
       </c>
       <c r="M4" t="n">
-        <v>229.9777778559566</v>
+        <v>229.9777778559539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31044,13 +31044,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31062,25 +31062,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31126,7 +31126,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,16 +31135,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31153,16 +31153,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31229,19 +31229,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31293,10 +31293,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840425</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934777</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N5" t="n">
         <v>612.3808166839008</v>
@@ -31305,22 +31305,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662297</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928394</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R5" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699489</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T5" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,7 +31363,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095114</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J6" t="n">
         <v>173.4885040076062</v>
@@ -31372,19 +31372,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616797</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730377</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152842</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884504</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475631</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q6" t="n">
         <v>234.3999545349506</v>
@@ -31393,10 +31393,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053858</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057842</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U6" t="n">
         <v>0.1208081129062761</v>
@@ -31442,22 +31442,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017474</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001568</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368735</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282505</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420138</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O7" t="n">
         <v>217.5982526595396</v>
@@ -31469,13 +31469,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153088</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S7" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978874</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U7" t="n">
         <v>0.08397154077419852</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.626565920651752</v>
+        <v>3.626565920651762</v>
       </c>
       <c r="H8" t="n">
-        <v>37.14056823487477</v>
+        <v>37.14056823487486</v>
       </c>
       <c r="I8" t="n">
-        <v>139.8131826559268</v>
+        <v>139.8131826559272</v>
       </c>
       <c r="J8" t="n">
-        <v>307.8002493079169</v>
+        <v>307.8002493079177</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3127847291057</v>
+        <v>461.3127847291069</v>
       </c>
       <c r="L8" t="n">
-        <v>572.2993015232519</v>
+        <v>572.2993015232533</v>
       </c>
       <c r="M8" t="n">
-        <v>636.7932432146425</v>
+        <v>636.7932432146441</v>
       </c>
       <c r="N8" t="n">
-        <v>647.0972236366944</v>
+        <v>647.097223636696</v>
       </c>
       <c r="O8" t="n">
-        <v>611.0355587632134</v>
+        <v>611.035558763215</v>
       </c>
       <c r="P8" t="n">
-        <v>521.5047125971232</v>
+        <v>521.5047125971246</v>
       </c>
       <c r="Q8" t="n">
-        <v>391.6283205637822</v>
+        <v>391.6283205637832</v>
       </c>
       <c r="R8" t="n">
-        <v>227.8072715131408</v>
+        <v>227.8072715131414</v>
       </c>
       <c r="S8" t="n">
-        <v>82.64037091685189</v>
+        <v>82.64037091685211</v>
       </c>
       <c r="T8" t="n">
-        <v>15.87529231765305</v>
+        <v>15.87529231765309</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2901252736521401</v>
+        <v>0.2901252736521409</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.940383831978909</v>
+        <v>1.940383831978914</v>
       </c>
       <c r="H9" t="n">
-        <v>18.74002279832262</v>
+        <v>18.74002279832267</v>
       </c>
       <c r="I9" t="n">
-        <v>66.8070749168177</v>
+        <v>66.80707491681785</v>
       </c>
       <c r="J9" t="n">
-        <v>183.3237198449898</v>
+        <v>183.3237198449903</v>
       </c>
       <c r="K9" t="n">
-        <v>313.3294365875767</v>
+        <v>313.3294365875774</v>
       </c>
       <c r="L9" t="n">
-        <v>421.3100947461223</v>
+        <v>421.3100947461233</v>
       </c>
       <c r="M9" t="n">
-        <v>491.6490086553576</v>
+        <v>491.6490086553588</v>
       </c>
       <c r="N9" t="n">
-        <v>504.6614949671811</v>
+        <v>504.6614949671824</v>
       </c>
       <c r="O9" t="n">
-        <v>461.6666742691222</v>
+        <v>461.6666742691233</v>
       </c>
       <c r="P9" t="n">
-        <v>370.5282073539374</v>
+        <v>370.5282073539383</v>
       </c>
       <c r="Q9" t="n">
-        <v>247.688294061027</v>
+        <v>247.6882940610276</v>
       </c>
       <c r="R9" t="n">
-        <v>120.4740066907607</v>
+        <v>120.474006690761</v>
       </c>
       <c r="S9" t="n">
-        <v>36.04177863346786</v>
+        <v>36.04177863346795</v>
       </c>
       <c r="T9" t="n">
-        <v>7.821108515739545</v>
+        <v>7.821108515739565</v>
       </c>
       <c r="U9" t="n">
-        <v>0.127656831051244</v>
+        <v>0.1276568310512443</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.626752623013666</v>
+        <v>1.62675262301367</v>
       </c>
       <c r="H10" t="n">
-        <v>14.46330968461242</v>
+        <v>14.46330968461246</v>
       </c>
       <c r="I10" t="n">
-        <v>48.92088797208373</v>
+        <v>48.92088797208385</v>
       </c>
       <c r="J10" t="n">
-        <v>115.0114104470662</v>
+        <v>115.0114104470665</v>
       </c>
       <c r="K10" t="n">
-        <v>188.9990774737695</v>
+        <v>188.99907747377</v>
       </c>
       <c r="L10" t="n">
-        <v>241.8537490615046</v>
+        <v>241.8537490615052</v>
       </c>
       <c r="M10" t="n">
-        <v>255.0008679874967</v>
+        <v>255.0008679874974</v>
       </c>
       <c r="N10" t="n">
-        <v>248.9375173017187</v>
+        <v>248.9375173017194</v>
       </c>
       <c r="O10" t="n">
-        <v>229.9340889328772</v>
+        <v>229.9340889328778</v>
       </c>
       <c r="P10" t="n">
-        <v>196.7483354233982</v>
+        <v>196.7483354233987</v>
       </c>
       <c r="Q10" t="n">
-        <v>136.2183491870807</v>
+        <v>136.2183491870811</v>
       </c>
       <c r="R10" t="n">
-        <v>73.14471339477811</v>
+        <v>73.14471339477829</v>
       </c>
       <c r="S10" t="n">
-        <v>28.34986162106543</v>
+        <v>28.3498616210655</v>
       </c>
       <c r="T10" t="n">
-        <v>6.950670298331118</v>
+        <v>6.950670298331135</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08873196125529099</v>
+        <v>0.08873196125529122</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781681</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33034,7 +33034,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33672,7 +33672,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P35" t="n">
         <v>629.9949819746414</v>
@@ -33918,7 +33918,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
         <v>99.83230779806951</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142394</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808905</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140553</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M5" t="n">
-        <v>372.283405866205</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N5" t="n">
         <v>382.9677530873099</v>
@@ -34953,7 +34953,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109601</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q5" t="n">
         <v>148.31198861839</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.65087734093947</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K6" t="n">
         <v>158.6780472169987</v>
@@ -35023,7 +35023,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510194</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N6" t="n">
         <v>346.2449737319509</v>
@@ -35035,7 +35035,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892904</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,19 +35096,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>49.84612367850721</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L7" t="n">
-        <v>93.99375335563525</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M7" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N7" t="n">
-        <v>107.8966131767806</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O7" t="n">
-        <v>79.14171420769679</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P7" t="n">
         <v>48.46489236084162</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>126.7543447812307</v>
+        <v>126.7543447812315</v>
       </c>
       <c r="K8" t="n">
-        <v>241.2229336841252</v>
+        <v>241.2229336841264</v>
       </c>
       <c r="L8" t="n">
-        <v>336.5328865532646</v>
+        <v>336.5328865532661</v>
       </c>
       <c r="M8" t="n">
-        <v>406.4470099873698</v>
+        <v>406.4470099873714</v>
       </c>
       <c r="N8" t="n">
-        <v>417.6841600401034</v>
+        <v>417.684160040105</v>
       </c>
       <c r="O8" t="n">
-        <v>380.9373473415267</v>
+        <v>380.9373473415283</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2717168418537</v>
+        <v>290.271716841855</v>
       </c>
       <c r="Q8" t="n">
-        <v>169.3226306893327</v>
+        <v>169.3226306893337</v>
       </c>
       <c r="R8" t="n">
-        <v>12.22173369900872</v>
+        <v>12.22173369900929</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>56.4860931783231</v>
+        <v>56.48609317832356</v>
       </c>
       <c r="K9" t="n">
-        <v>175.4879976132177</v>
+        <v>175.4879976132185</v>
       </c>
       <c r="L9" t="n">
-        <v>282.7557149662481</v>
+        <v>282.7557149662491</v>
       </c>
       <c r="M9" t="n">
-        <v>349.5149747333393</v>
+        <v>349.5149747333405</v>
       </c>
       <c r="N9" t="n">
-        <v>373.3197828838478</v>
+        <v>373.3197828838491</v>
       </c>
       <c r="O9" t="n">
-        <v>319.0704298246777</v>
+        <v>319.0704298246789</v>
       </c>
       <c r="P9" t="n">
-        <v>236.5537999396071</v>
+        <v>236.5537999396081</v>
       </c>
       <c r="Q9" t="n">
-        <v>107.7065199750055</v>
+        <v>107.7065199750061</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>59.98581930323417</v>
+        <v>59.98581930323465</v>
       </c>
       <c r="L10" t="n">
-        <v>106.9690727802663</v>
+        <v>106.9690727802669</v>
       </c>
       <c r="M10" t="n">
-        <v>116.0750840398917</v>
+        <v>116.0750840398923</v>
       </c>
       <c r="N10" t="n">
-        <v>121.2519728364855</v>
+        <v>121.2519728364862</v>
       </c>
       <c r="O10" t="n">
-        <v>91.4775504810344</v>
+        <v>91.477550481035</v>
       </c>
       <c r="P10" t="n">
-        <v>59.02033137425062</v>
+        <v>59.02033137425113</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037185</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K19" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K22" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M22" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
